--- a/Sprint2_Deliverable/Sprint 2.xlsx
+++ b/Sprint2_Deliverable/Sprint 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dom\PycharmProjects\SSW555Project\Sprint2_Deliverable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F3CC5-DFFE-416F-AD6F-96A4595D47F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4457DAE-4255-40EF-B6EB-A6F461BA8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="224">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,6 +740,12 @@
   </si>
   <si>
     <t>8 hr</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs further work </t>
   </si>
 </sst>
 </file>
@@ -1178,6 +1184,9 @@
                 <c:pt idx="2">
                   <c:v>42658</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42682</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1195,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,15 +2100,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2209,20 +2221,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E25"/>
+    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.4609375" customWidth="1"/>
-    <col min="2" max="2" width="7.61328125" customWidth="1"/>
-    <col min="3" max="3" width="27.61328125" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2324,7 +2336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2443,7 +2455,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2525,10 +2537,10 @@
         <v>204</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2542,10 +2554,10 @@
         <v>204</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2559,10 +2571,10 @@
         <v>205</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2576,10 +2588,10 @@
         <v>205</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2593,10 +2605,10 @@
         <v>203</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2610,10 +2622,10 @@
         <v>203</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2627,10 +2639,10 @@
         <v>206</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2644,10 +2656,10 @@
         <v>206</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2657,8 +2669,14 @@
       <c r="C26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2668,8 +2686,14 @@
       <c r="C27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2679,8 +2703,14 @@
       <c r="C28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2690,8 +2720,14 @@
       <c r="C29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2701,8 +2737,14 @@
       <c r="C30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2712,8 +2754,14 @@
       <c r="C31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2723,8 +2771,14 @@
       <c r="C32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2733,6 +2787,12 @@
       </c>
       <c r="C33" t="s">
         <v>111</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2750,47 +2810,47 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>161</v>
       </c>
@@ -2813,7 +2873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -2829,7 +2889,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -2854,7 +2914,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>164</v>
       </c>
@@ -2879,7 +2939,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>165</v>
       </c>
@@ -2904,7 +2964,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>166</v>
       </c>
@@ -2938,23 +2998,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +3034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42634</v>
       </c>
@@ -2985,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42647</v>
       </c>
@@ -3007,7 +3067,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42658</v>
       </c>
@@ -3026,6 +3086,27 @@
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42682</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>360</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
+        <v>16.666666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -3041,22 +3122,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" customWidth="1"/>
-    <col min="2" max="2" width="28.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" customWidth="1"/>
-    <col min="5" max="5" width="15.84375" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" customWidth="1"/>
-    <col min="7" max="7" width="13.61328125" customWidth="1"/>
-    <col min="8" max="8" width="15.61328125" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="6"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3105,7 +3186,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3125,7 +3206,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3145,7 +3226,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3165,7 +3246,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3185,7 +3266,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3205,7 +3286,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3225,7 +3306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3245,16 +3326,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -3262,12 +3343,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -3275,7 +3356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
         <v>212</v>
       </c>
@@ -3291,16 +3372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +3410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3358,7 +3439,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3387,7 +3468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -3416,7 +3497,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -3445,7 +3526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3474,7 +3555,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3503,7 +3584,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3532,7 +3613,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3572,16 +3653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3610,7 +3692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -3621,7 +3703,7 @@
         <v>204</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -3629,8 +3711,17 @@
       <c r="F2" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -3641,7 +3732,7 @@
         <v>204</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3649,8 +3740,17 @@
       <c r="F3" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3661,7 +3761,7 @@
         <v>205</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -3669,8 +3769,17 @@
       <c r="F4" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -3681,7 +3790,7 @@
         <v>205</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -3689,8 +3798,17 @@
       <c r="F5" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -3701,7 +3819,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3709,8 +3827,17 @@
       <c r="F6" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -3721,7 +3848,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3729,8 +3856,17 @@
       <c r="F7" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3877,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3749,8 +3885,17 @@
       <c r="F8" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -3761,13 +3906,22 @@
         <v>206</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>208</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3778,15 +3932,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3813,6 +3970,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3825,17 +4142,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
@@ -3846,7 +4163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +4174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3868,7 +4185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3879,7 +4196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3890,7 +4207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3901,7 +4218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3912,7 +4229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3923,7 +4240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3934,7 +4251,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3945,7 +4262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3956,7 +4273,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3967,7 +4284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -3978,7 +4295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3989,7 +4306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -4000,7 +4317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -4011,7 +4328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -4022,7 +4339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>130</v>
       </c>
@@ -4033,7 +4350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4044,7 +4361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>132</v>
       </c>
@@ -4055,7 +4372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>133</v>
       </c>
@@ -4066,7 +4383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -4077,7 +4394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -4088,7 +4405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -4099,7 +4416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -4110,7 +4427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -4121,7 +4438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>139</v>
       </c>
@@ -4132,7 +4449,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -4143,7 +4460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -4154,7 +4471,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -4165,7 +4482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -4176,7 +4493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -4187,7 +4504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>145</v>
       </c>
@@ -4198,7 +4515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>146</v>
       </c>
@@ -4209,7 +4526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>147</v>
       </c>
@@ -4220,7 +4537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -4231,7 +4548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -4242,7 +4559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>150</v>
       </c>
@@ -4253,7 +4570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -4264,7 +4581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -4275,7 +4592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>153</v>
       </c>
@@ -4286,7 +4603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>154</v>
       </c>
@@ -4297,7 +4614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>155</v>
       </c>
